--- a/trunk/ tp-distribuidos-grupo3/documentacion/Tabla de subredes - Subnetting.xlsx
+++ b/trunk/ tp-distribuidos-grupo3/documentacion/Tabla de subredes - Subnetting.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="540" windowWidth="18615" windowHeight="5835"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="142">
   <si>
     <t>Red</t>
   </si>
@@ -434,6 +434,12 @@
   </si>
   <si>
     <t>Quedan .76-.255 = 179</t>
+  </si>
+  <si>
+    <t>Coluer</t>
+  </si>
+  <si>
+    <t>Yeti</t>
   </si>
 </sst>
 </file>
@@ -693,15 +699,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -714,32 +711,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1045,732 +1051,737 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
     <col min="5" max="5" width="30.5703125" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="11" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15" t="s">
+      <c r="C3" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="6">
         <v>4</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="14" t="s">
         <v>137</v>
       </c>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="6">
         <v>4</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="14" t="s">
         <v>138</v>
       </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="6">
         <v>4</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="14" t="s">
         <v>139</v>
       </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="11" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="6">
         <v>4</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="16" t="s">
         <v>31</v>
       </c>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="6">
         <v>4</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="16" t="s">
         <v>36</v>
       </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="6">
         <v>4</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="16" t="s">
         <v>41</v>
       </c>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="6">
         <v>29</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="16" t="s">
         <v>48</v>
       </c>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="16" t="s">
         <v>55</v>
       </c>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="6">
         <v>4</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="16" t="s">
         <v>60</v>
       </c>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="6">
         <v>103</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="11"/>
+      <c r="H13" s="16"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="6">
         <v>4</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="16" t="s">
         <v>70</v>
       </c>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="16" t="s">
         <v>76</v>
       </c>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="16" t="s">
         <v>83</v>
       </c>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="6">
         <v>37</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="11" t="s">
         <v>15</v>
       </c>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="6">
         <v>250</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="11" t="s">
         <v>15</v>
       </c>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="6">
         <v>7</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="16" t="s">
         <v>97</v>
       </c>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="6">
         <v>13</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="16" t="s">
         <v>102</v>
       </c>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="6">
         <v>4</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="16" t="s">
         <v>108</v>
       </c>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="6">
         <v>4</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="16" t="s">
         <v>113</v>
       </c>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="6">
         <v>4</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="16" t="s">
         <v>118</v>
       </c>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="5"/>
-      <c r="E26" s="10" t="s">
+      <c r="D26" s="2"/>
+      <c r="E26" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="8" t="s">
         <v>120</v>
       </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D27" s="5"/>
-      <c r="E27" s="3" t="s">
+      <c r="D27" s="2"/>
+      <c r="E27" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D28" s="5"/>
-      <c r="E28" s="3" t="s">
+      <c r="D28" s="2"/>
+      <c r="E28" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="10" t="s">
         <v>123</v>
       </c>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D29" s="5"/>
-      <c r="E29" s="3" t="s">
+      <c r="D29" s="2"/>
+      <c r="E29" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D30" s="5"/>
-      <c r="E30" s="3" t="s">
+      <c r="D30" s="2"/>
+      <c r="E30" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="10" t="s">
         <v>87</v>
       </c>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D31" s="5"/>
-      <c r="E31" s="3" t="s">
+      <c r="D31" s="2"/>
+      <c r="E31" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="10" t="s">
         <v>64</v>
       </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D32" s="5"/>
-      <c r="E32" s="3" t="s">
+      <c r="D32" s="2"/>
+      <c r="E32" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="10" t="s">
         <v>123</v>
       </c>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D33" s="5"/>
-      <c r="E33" s="3" t="s">
+      <c r="D33" s="2"/>
+      <c r="E33" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
